--- a/biology/Botanique/Berchemia/Berchemia.xlsx
+++ b/biology/Botanique/Berchemia/Berchemia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berchemia est un genre de plantes à fleurs de la famille des Rhamnaceae.
 Ce sont des arbres.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,15 +552,17 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 août 2017) :
 Berchemia flavescens Wall.
 Berchemia giraldiana Schneid.
 Berchemia multinervis (A. Br.) Heer †
 Berchemia racemosa Siebold &amp; Zucc.
 Berchemia scandens (Hill) K. Koch
-Selon Catalogue of Life                                   (11 août 2017)[3] :
+Selon Catalogue of Life                                   (11 août 2017) :
 Berchemia annamensis Pit.
 Berchemia barbigera C. Y. Wu ex Y. L. Chen
 Berchemia brachycarpa C. Y. Wu ex Y. L. Chen
@@ -583,7 +599,7 @@
 Berchemia sinica C.K. Schneid.
 Berchemia yunnanensis Franch.
 Berchemia zeyheri (Sond.) Grubov
-Selon GRIN            (11 août 2017)[4] :
+Selon GRIN            (11 août 2017) :
 Berchemia discolor (Klotzsch) Hemsl.
 Berchemia edgeworthii M. A. Lawson
 Berchemia floribunda (Wall.) Brongn.
@@ -593,9 +609,9 @@
 Berchemia racemosa Siebold &amp; Zucc.
 Berchemia scandens (Hill) K. Koch
 Berchemia zeyheri (Sond.) Grubov
-Selon ITIS      (11 août 2017)[5] :
+Selon ITIS      (11 août 2017) :
 Berchemia scandens (Hill) K. Koch
-Selon NCBI  (11 août 2017)[6] :
+Selon NCBI  (11 août 2017) :
 Berchemia berchemiifolia
 Berchemia discolor
 Berchemia edgeworthii
@@ -613,7 +629,7 @@
 Berchemia scandens
 Berchemia sinica
 Berchemia zeyheri
-Selon The Plant List            (11 août 2017)[7] :
+Selon The Plant List            (11 août 2017) :
 Berchemia alnifolia H.Lév.
 Berchemia annamensis Pit.
 Berchemia arisanensis Y.C.Liu &amp; F.Y.Lu
@@ -662,9 +678,9 @@
 Berchemia yemenensis Deflers
 Berchemia yunnanensis Franch.
 Berchemia zeyheri (Sond.) Grubov
-Selon Paleobiology Database                   (11 août 2017)[8] :
+Selon Paleobiology Database                   (11 août 2017) :
 Berchemia mellerae
-Selon Tropicos                                           (11 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Berchemia alnifolia H. Lév.
 Berchemia annamensis Pit.
 Berchemia arisanensis Y.C. Liu &amp; F.Y. Lu
